--- a/Business Analysis/data/user_2.xlsx
+++ b/Business Analysis/data/user_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C76B49-523D-4D08-9C3D-B2CFD4491FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FBE22-B581-4C03-930D-621AF516A678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Studying</t>
   </si>
   <si>
-    <t>Evening (6pm - 12am)</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Night (12am - 6am)</t>
-  </si>
-  <si>
     <t>Peaceful</t>
   </si>
   <si>
@@ -103,6 +97,54 @@
   </si>
   <si>
     <t xml:space="preserve">Honey Bee - Madrugada </t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacrimosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mozart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serenade </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schubert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad About You </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hooverphonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasting My Young Years </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> London Grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusk Till Dawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZAYN ft. Sia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey Bee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madrugada </t>
   </si>
 </sst>
 </file>
@@ -476,47 +518,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43837.646519664355</v>
       </c>
@@ -524,28 +574,34 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43838.646516203706</v>
       </c>
@@ -553,28 +609,34 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43839.646516203706</v>
       </c>
@@ -582,28 +644,34 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43840.646516203706</v>
       </c>
@@ -611,28 +679,34 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43837.648752245368</v>
       </c>
@@ -640,28 +714,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43837.650061168984</v>
       </c>
@@ -669,28 +749,34 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -701,7 +787,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -712,7 +798,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -723,7 +809,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -734,7 +820,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -745,7 +831,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -756,7 +842,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -767,7 +853,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -778,7 +864,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Business Analysis/data/user_2.xlsx
+++ b/Business Analysis/data/user_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FBE22-B581-4C03-930D-621AF516A678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D12F4-EE18-4623-B278-B8ED8A09F43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Studying</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Amusing</t>
-  </si>
-  <si>
-    <t>Calm</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -75,12 +63,6 @@
     <t>song-artist</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Peaceful</t>
-  </si>
-  <si>
     <t>Lacrimosa - Mozart</t>
   </si>
   <si>
@@ -145,6 +127,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Madrugada </t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t>amusing</t>
+  </si>
+  <si>
+    <t>peaceful</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>calm</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,37 +536,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -574,31 +577,31 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -609,31 +612,31 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -644,31 +647,31 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -679,31 +682,31 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -714,31 +717,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -749,31 +752,31 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">

--- a/Business Analysis/data/user_2.xlsx
+++ b/Business Analysis/data/user_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D12F4-EE18-4623-B278-B8ED8A09F43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FD904-770E-4F15-B364-347A021B9117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>Studying</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>age</t>
@@ -154,9 +151,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,10 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -521,20 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060FE2C-A30E-4EBF-B405-ABFA2908FDA9}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,230 +549,209 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>43837.646519664355</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>43838.646516203706</v>
-      </c>
-      <c r="B3" s="1">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>43839.646516203706</v>
-      </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
         <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>43840.646516203706</v>
-      </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>43837.648752245368</v>
-      </c>
-      <c r="B6" s="1">
-        <v>27</v>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>43837.650061168984</v>
-      </c>
-      <c r="B7" s="1">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -788,10 +759,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -799,21 +769,19 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -821,10 +789,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -832,10 +799,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -843,10 +809,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -854,10 +819,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -865,10 +829,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -876,10 +839,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -887,10 +849,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -898,10 +859,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -909,10 +869,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -920,10 +879,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -931,10 +889,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -942,10 +899,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -953,10 +909,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -964,7 +919,6 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Business Analysis/data/user_2.xlsx
+++ b/Business Analysis/data/user_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FD904-770E-4F15-B364-347A021B9117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3318D83C-8472-41D1-98F3-408CBDA88570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82B3C739-B5A8-4F4D-BDE7-601B15B215EB}"/>
   </bookViews>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Studying</t>
   </si>
   <si>
     <t>age</t>
@@ -517,7 +514,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,34 +525,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,31 +560,31 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -595,31 +592,31 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -627,31 +624,31 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -659,31 +656,31 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -691,31 +688,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -723,31 +720,31 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
